--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Angpt1-Tie1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Angpt1-Tie1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Angpt1</t>
   </si>
   <si>
     <t>Tie1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.110507</v>
+        <v>0.1786683333333333</v>
       </c>
       <c r="H2">
-        <v>0.331521</v>
+        <v>0.536005</v>
       </c>
       <c r="I2">
-        <v>0.004605687348208628</v>
+        <v>0.005700931134181372</v>
       </c>
       <c r="J2">
-        <v>0.004605687348208628</v>
+        <v>0.005700931134181372</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>66.04433166666666</v>
+        <v>75.02398799999999</v>
       </c>
       <c r="N2">
-        <v>198.132995</v>
+        <v>225.071964</v>
       </c>
       <c r="O2">
-        <v>0.9905709103863496</v>
+        <v>0.9946207163417996</v>
       </c>
       <c r="P2">
-        <v>0.9905709103863498</v>
+        <v>0.9946207163417997</v>
       </c>
       <c r="Q2">
-        <v>7.298360959488334</v>
+        <v>13.40441089598</v>
       </c>
       <c r="R2">
-        <v>65.685248635395</v>
+        <v>120.63969806382</v>
       </c>
       <c r="S2">
-        <v>0.004562259909469913</v>
+        <v>0.005670264208494744</v>
       </c>
       <c r="T2">
-        <v>0.004562259909469913</v>
+        <v>0.005670264208494745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.110507</v>
+        <v>0.1786683333333333</v>
       </c>
       <c r="H3">
-        <v>0.331521</v>
+        <v>0.536005</v>
       </c>
       <c r="I3">
-        <v>0.004605687348208628</v>
+        <v>0.005700931134181372</v>
       </c>
       <c r="J3">
-        <v>0.004605687348208628</v>
+        <v>0.005700931134181372</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.290024</v>
       </c>
       <c r="O3">
-        <v>0.001449982309679873</v>
+        <v>0.001281651759329359</v>
       </c>
       <c r="P3">
-        <v>0.001449982309679873</v>
+        <v>0.001281651759329359</v>
       </c>
       <c r="Q3">
-        <v>0.01068322738933333</v>
+        <v>0.01727270156888889</v>
       </c>
       <c r="R3">
-        <v>0.09614904650400001</v>
+        <v>0.15545431412</v>
       </c>
       <c r="S3">
-        <v>6.678165178818914E-06</v>
+        <v>7.306608417939073E-06</v>
       </c>
       <c r="T3">
-        <v>6.678165178818915E-06</v>
+        <v>7.306608417939073E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.110507</v>
+        <v>0.1786683333333333</v>
       </c>
       <c r="H4">
-        <v>0.331521</v>
+        <v>0.536005</v>
       </c>
       <c r="I4">
-        <v>0.004605687348208628</v>
+        <v>0.005700931134181372</v>
       </c>
       <c r="J4">
-        <v>0.004605687348208628</v>
+        <v>0.005700931134181372</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5025553333333334</v>
+        <v>0.291865</v>
       </c>
       <c r="N4">
-        <v>1.507666</v>
+        <v>0.875595</v>
       </c>
       <c r="O4">
-        <v>0.007537614228152894</v>
+        <v>0.00386936209489556</v>
       </c>
       <c r="P4">
-        <v>0.007537614228152896</v>
+        <v>0.00386936209489556</v>
       </c>
       <c r="Q4">
-        <v>0.05553588222066667</v>
+        <v>0.05214703310833332</v>
       </c>
       <c r="R4">
-        <v>0.499822939986</v>
+        <v>0.4693232979749999</v>
       </c>
       <c r="S4">
-        <v>3.471589448628112E-05</v>
+        <v>2.205896683621135E-05</v>
       </c>
       <c r="T4">
-        <v>3.471589448628113E-05</v>
+        <v>2.205896683621136E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.110507</v>
+        <v>0.1786683333333333</v>
       </c>
       <c r="H5">
-        <v>0.331521</v>
+        <v>0.536005</v>
       </c>
       <c r="I5">
-        <v>0.004605687348208628</v>
+        <v>0.005700931134181372</v>
       </c>
       <c r="J5">
-        <v>0.004605687348208628</v>
+        <v>0.005700931134181372</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02943566666666667</v>
+        <v>0.01721833333333333</v>
       </c>
       <c r="N5">
-        <v>0.08830700000000001</v>
+        <v>0.051655</v>
       </c>
       <c r="O5">
-        <v>0.0004414930758175203</v>
+        <v>0.0002282698039753883</v>
       </c>
       <c r="P5">
-        <v>0.0004414930758175205</v>
+        <v>0.0002282698039753884</v>
       </c>
       <c r="Q5">
-        <v>0.003252847216333334</v>
+        <v>0.003076370919444444</v>
       </c>
       <c r="R5">
-        <v>0.029275624947</v>
+        <v>0.027687338275</v>
       </c>
       <c r="S5">
-        <v>2.033379073614466E-06</v>
+        <v>1.30135043247677E-06</v>
       </c>
       <c r="T5">
-        <v>2.033379073614467E-06</v>
+        <v>1.30135043247677E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>66.443494</v>
       </c>
       <c r="I6">
-        <v>0.9230726249214253</v>
+        <v>0.7066907652137446</v>
       </c>
       <c r="J6">
-        <v>0.9230726249214253</v>
+        <v>0.7066907652137446</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>66.04433166666666</v>
+        <v>75.02398799999999</v>
       </c>
       <c r="N6">
-        <v>198.132995</v>
+        <v>225.071964</v>
       </c>
       <c r="O6">
-        <v>0.9905709103863496</v>
+        <v>0.9946207163417996</v>
       </c>
       <c r="P6">
-        <v>0.9905709103863498</v>
+        <v>0.9946207163417997</v>
       </c>
       <c r="Q6">
-        <v>1462.738718276059</v>
+        <v>1661.618632178024</v>
       </c>
       <c r="R6">
-        <v>13164.64846448453</v>
+        <v>14954.56768960221</v>
       </c>
       <c r="S6">
-        <v>0.9143688904211337</v>
+        <v>0.7028892751290292</v>
       </c>
       <c r="T6">
-        <v>0.9143688904211339</v>
+        <v>0.7028892751290293</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>66.443494</v>
       </c>
       <c r="I7">
-        <v>0.9230726249214253</v>
+        <v>0.7066907652137446</v>
       </c>
       <c r="J7">
-        <v>0.9230726249214253</v>
+        <v>0.7066907652137446</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.290024</v>
       </c>
       <c r="O7">
-        <v>0.001449982309679873</v>
+        <v>0.001281651759329359</v>
       </c>
       <c r="P7">
-        <v>0.001449982309679873</v>
+        <v>0.001281651759329359</v>
       </c>
       <c r="Q7">
         <v>2.141134211539556</v>
@@ -883,10 +883,10 @@
         <v>19.270207903856</v>
       </c>
       <c r="S7">
-        <v>0.001338438976685831</v>
+        <v>0.0009057314625380067</v>
       </c>
       <c r="T7">
-        <v>0.001338438976685831</v>
+        <v>0.0009057314625380067</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>66.443494</v>
       </c>
       <c r="I8">
-        <v>0.9230726249214253</v>
+        <v>0.7066907652137446</v>
       </c>
       <c r="J8">
-        <v>0.9230726249214253</v>
+        <v>0.7066907652137446</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5025553333333334</v>
+        <v>0.291865</v>
       </c>
       <c r="N8">
-        <v>1.507666</v>
+        <v>0.875595</v>
       </c>
       <c r="O8">
-        <v>0.007537614228152894</v>
+        <v>0.00386936209489556</v>
       </c>
       <c r="P8">
-        <v>0.007537614228152896</v>
+        <v>0.00386936209489556</v>
       </c>
       <c r="Q8">
-        <v>11.13051075833378</v>
+        <v>6.464176792103332</v>
       </c>
       <c r="R8">
-        <v>100.174596825004</v>
+        <v>58.17759112893</v>
       </c>
       <c r="S8">
-        <v>0.006957765351226174</v>
+        <v>0.002734442459730801</v>
       </c>
       <c r="T8">
-        <v>0.006957765351226176</v>
+        <v>0.002734442459730802</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>66.443494</v>
       </c>
       <c r="I9">
-        <v>0.9230726249214253</v>
+        <v>0.7066907652137446</v>
       </c>
       <c r="J9">
-        <v>0.9230726249214253</v>
+        <v>0.7066907652137446</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02943566666666667</v>
+        <v>0.01721833333333333</v>
       </c>
       <c r="N9">
-        <v>0.08830700000000001</v>
+        <v>0.051655</v>
       </c>
       <c r="O9">
-        <v>0.0004414930758175203</v>
+        <v>0.0002282698039753883</v>
       </c>
       <c r="P9">
-        <v>0.0004414930758175205</v>
+        <v>0.0002282698039753884</v>
       </c>
       <c r="Q9">
-        <v>0.6519361805175555</v>
+        <v>0.3813487425077777</v>
       </c>
       <c r="R9">
-        <v>5.867425624658001</v>
+        <v>3.43213868257</v>
       </c>
       <c r="S9">
-        <v>0.0004075301723795123</v>
+        <v>0.0001613161624465587</v>
       </c>
       <c r="T9">
-        <v>0.0004075301723795125</v>
+        <v>0.0001613161624465587</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.735257333333333</v>
+        <v>8.967326666666667</v>
       </c>
       <c r="H10">
-        <v>5.205772000000001</v>
+        <v>26.90198</v>
       </c>
       <c r="I10">
-        <v>0.07232168773036617</v>
+        <v>0.2861285535640985</v>
       </c>
       <c r="J10">
-        <v>0.07232168773036618</v>
+        <v>0.2861285535640984</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>66.04433166666666</v>
+        <v>75.02398799999999</v>
       </c>
       <c r="N10">
-        <v>198.132995</v>
+        <v>225.071964</v>
       </c>
       <c r="O10">
-        <v>0.9905709103863496</v>
+        <v>0.9946207163417996</v>
       </c>
       <c r="P10">
-        <v>0.9905709103863498</v>
+        <v>0.9946207163417997</v>
       </c>
       <c r="Q10">
-        <v>114.6039108496822</v>
+        <v>672.7646082320799</v>
       </c>
       <c r="R10">
-        <v>1031.43519764714</v>
+        <v>6054.88147408872</v>
       </c>
       <c r="S10">
-        <v>0.0716397600557461</v>
+        <v>0.2845893869117666</v>
       </c>
       <c r="T10">
-        <v>0.07163976005574613</v>
+        <v>0.2845893869117666</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.735257333333333</v>
+        <v>8.967326666666667</v>
       </c>
       <c r="H11">
-        <v>5.205772000000001</v>
+        <v>26.90198</v>
       </c>
       <c r="I11">
-        <v>0.07232168773036617</v>
+        <v>0.2861285535640985</v>
       </c>
       <c r="J11">
-        <v>0.07232168773036618</v>
+        <v>0.2861285535640984</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.290024</v>
       </c>
       <c r="O11">
-        <v>0.001449982309679873</v>
+        <v>0.001281651759329359</v>
       </c>
       <c r="P11">
-        <v>0.001449982309679873</v>
+        <v>0.001281651759329359</v>
       </c>
       <c r="Q11">
-        <v>0.1677554242808889</v>
+        <v>0.8669133163911111</v>
       </c>
       <c r="R11">
-        <v>1.509798818528</v>
+        <v>7.802219847520001</v>
       </c>
       <c r="S11">
-        <v>0.0001048651678152229</v>
+        <v>0.0003667171640697916</v>
       </c>
       <c r="T11">
-        <v>0.0001048651678152229</v>
+        <v>0.0003667171640697915</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.735257333333333</v>
+        <v>8.967326666666667</v>
       </c>
       <c r="H12">
-        <v>5.205772000000001</v>
+        <v>26.90198</v>
       </c>
       <c r="I12">
-        <v>0.07232168773036617</v>
+        <v>0.2861285535640985</v>
       </c>
       <c r="J12">
-        <v>0.07232168773036618</v>
+        <v>0.2861285535640984</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5025553333333334</v>
+        <v>0.291865</v>
       </c>
       <c r="N12">
-        <v>1.507666</v>
+        <v>0.875595</v>
       </c>
       <c r="O12">
-        <v>0.007537614228152894</v>
+        <v>0.00386936209489556</v>
       </c>
       <c r="P12">
-        <v>0.007537614228152896</v>
+        <v>0.00386936209489556</v>
       </c>
       <c r="Q12">
-        <v>0.8720628275724446</v>
+        <v>2.617248797566667</v>
       </c>
       <c r="R12">
-        <v>7.848565448152001</v>
+        <v>23.5552391781</v>
       </c>
       <c r="S12">
-        <v>0.0005451329824404386</v>
+        <v>0.001107134979428217</v>
       </c>
       <c r="T12">
-        <v>0.0005451329824404388</v>
+        <v>0.001107134979428217</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.735257333333333</v>
+        <v>8.967326666666667</v>
       </c>
       <c r="H13">
-        <v>5.205772000000001</v>
+        <v>26.90198</v>
       </c>
       <c r="I13">
-        <v>0.07232168773036617</v>
+        <v>0.2861285535640985</v>
       </c>
       <c r="J13">
-        <v>0.07232168773036618</v>
+        <v>0.2861285535640984</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,276 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02943566666666667</v>
+        <v>0.01721833333333333</v>
       </c>
       <c r="N13">
-        <v>0.08830700000000001</v>
+        <v>0.051655</v>
       </c>
       <c r="O13">
-        <v>0.0004414930758175203</v>
+        <v>0.0002282698039753883</v>
       </c>
       <c r="P13">
-        <v>0.0004414930758175205</v>
+        <v>0.0002282698039753884</v>
       </c>
       <c r="Q13">
-        <v>0.0510784564448889</v>
+        <v>0.1544024196555555</v>
       </c>
       <c r="R13">
-        <v>0.4597061080040001</v>
+        <v>1.3896217769</v>
       </c>
       <c r="S13">
-        <v>3.192952436439358E-05</v>
+        <v>6.531450883383817E-05</v>
       </c>
       <c r="T13">
-        <v>3.19295243643936E-05</v>
+        <v>6.531450883383816E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.04637566666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.139127</v>
+      </c>
+      <c r="I14">
+        <v>0.001479750087975396</v>
+      </c>
+      <c r="J14">
+        <v>0.001479750087975395</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>75.02398799999999</v>
+      </c>
+      <c r="N14">
+        <v>225.071964</v>
+      </c>
+      <c r="O14">
+        <v>0.9946207163417996</v>
+      </c>
+      <c r="P14">
+        <v>0.9946207163417997</v>
+      </c>
+      <c r="Q14">
+        <v>3.479287459492</v>
+      </c>
+      <c r="R14">
+        <v>31.313587135428</v>
+      </c>
+      <c r="S14">
+        <v>0.001471790092508929</v>
+      </c>
+      <c r="T14">
+        <v>0.001471790092508929</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.04637566666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.139127</v>
+      </c>
+      <c r="I15">
+        <v>0.001479750087975396</v>
+      </c>
+      <c r="J15">
+        <v>0.001479750087975395</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.09667466666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.290024</v>
+      </c>
+      <c r="O15">
+        <v>0.001281651759329359</v>
+      </c>
+      <c r="P15">
+        <v>0.001281651759329359</v>
+      </c>
+      <c r="Q15">
+        <v>0.004483352116444445</v>
+      </c>
+      <c r="R15">
+        <v>0.040350169048</v>
+      </c>
+      <c r="S15">
+        <v>1.896524303621439E-06</v>
+      </c>
+      <c r="T15">
+        <v>1.896524303621439E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.04637566666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.139127</v>
+      </c>
+      <c r="I16">
+        <v>0.001479750087975396</v>
+      </c>
+      <c r="J16">
+        <v>0.001479750087975395</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.291865</v>
+      </c>
+      <c r="N16">
+        <v>0.875595</v>
+      </c>
+      <c r="O16">
+        <v>0.00386936209489556</v>
+      </c>
+      <c r="P16">
+        <v>0.00386936209489556</v>
+      </c>
+      <c r="Q16">
+        <v>0.01353543395166667</v>
+      </c>
+      <c r="R16">
+        <v>0.121818905565</v>
+      </c>
+      <c r="S16">
+        <v>5.725688900330366E-06</v>
+      </c>
+      <c r="T16">
+        <v>5.725688900330366E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.04637566666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.139127</v>
+      </c>
+      <c r="I17">
+        <v>0.001479750087975396</v>
+      </c>
+      <c r="J17">
+        <v>0.001479750087975395</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.01721833333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.051655</v>
+      </c>
+      <c r="O17">
+        <v>0.0002282698039753883</v>
+      </c>
+      <c r="P17">
+        <v>0.0002282698039753884</v>
+      </c>
+      <c r="Q17">
+        <v>0.0007985116872222222</v>
+      </c>
+      <c r="R17">
+        <v>0.007186605185</v>
+      </c>
+      <c r="S17">
+        <v>3.377822625147072E-07</v>
+      </c>
+      <c r="T17">
+        <v>3.377822625147072E-07</v>
       </c>
     </row>
   </sheetData>
